--- a/docs/source/tutorials/GenVeg/GenVeg_Dune_Simulation.xlsx
+++ b/docs/source/tutorials/GenVeg/GenVeg_Dune_Simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\landlab\docs\source\tutorials\GenVeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E929A-DA19-48A5-B72F-272ADCD1ADFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437FDBEA-41BB-47DC-A1D1-65C1615A4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
+    <workbookView xWindow="45972" yWindow="180" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -1499,22 +1499,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59430052-850A-4E52-8B29-0C7825B169C3}">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:D93"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="64.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>perennial deciduous</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>Poorter</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>Martinez-Vilalta</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>min-max</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>143</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>66</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>125</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>127</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>168</v>
       </c>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="15">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>162</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>152</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>170</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>155</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>167</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>158</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>25</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
         <v>75</v>
@@ -2117,7 +2117,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="9" t="s">
         <v>75</v>
@@ -2138,7 +2138,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="9" t="s">
         <v>75</v>
@@ -2159,7 +2159,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>26</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="9" t="s">
         <v>75</v>
@@ -2203,7 +2203,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="9" t="s">
         <v>75</v>
@@ -2224,7 +2224,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="9" t="s">
         <v>75</v>
@@ -2245,7 +2245,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>132</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
         <v>28</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="9" t="s">
         <v>75</v>
@@ -2305,7 +2305,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
@@ -2324,7 +2324,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="9" t="s">
         <v>75</v>
@@ -2343,7 +2343,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="9" t="s">
         <v>75</v>
@@ -2362,7 +2362,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
       <c r="B41" s="9" t="s">
         <v>75</v>
@@ -2381,7 +2381,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="9" t="s">
         <v>75</v>
@@ -2400,7 +2400,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
         <v>33</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="9" t="s">
         <v>75</v>
@@ -2444,7 +2444,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="9" t="s">
         <v>75</v>
@@ -2465,7 +2465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="B46" s="9" t="s">
         <v>75</v>
@@ -2486,7 +2486,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
         <v>62</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="9" t="s">
         <v>75</v>
@@ -2530,7 +2530,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="9" t="s">
         <v>75</v>
@@ -2551,7 +2551,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="9" t="s">
         <v>75</v>
@@ -2572,7 +2572,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>180</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
         <v>138</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="9" t="s">
         <v>75</v>
@@ -2639,7 +2639,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="9" t="s">
         <v>75</v>
@@ -2661,7 +2661,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="9" t="s">
         <v>75</v>
@@ -2683,7 +2683,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
         <v>139</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="9" t="s">
         <v>75</v>
@@ -2729,7 +2729,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="9" t="s">
         <v>75</v>
@@ -2751,7 +2751,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="9" t="s">
         <v>75</v>
@@ -2773,7 +2773,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
         <v>140</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="9" t="s">
         <v>75</v>
@@ -2819,7 +2819,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="9" t="s">
         <v>75</v>
@@ -2841,7 +2841,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="B63" s="9" t="s">
         <v>75</v>
@@ -2863,7 +2863,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
         <v>141</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="9" t="s">
         <v>75</v>
@@ -2909,7 +2909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="9" t="s">
         <v>75</v>
@@ -2931,7 +2931,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="9" t="s">
         <v>75</v>
@@ -2953,7 +2953,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>99</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>35</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>37</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>181</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>106</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
         <v>101</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>171</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>112</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>103</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>114</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>116</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>173</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>117</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>119</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
         <v>186</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="35"/>
       <c r="B83" s="19" t="s">
         <v>76</v>
@@ -3289,7 +3289,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
         <v>188</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="35"/>
       <c r="B85" s="19" t="s">
         <v>76</v>
@@ -3329,7 +3329,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
         <v>189</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="35"/>
       <c r="B87" s="19" t="s">
         <v>76</v>
@@ -3369,7 +3369,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="35"/>
       <c r="B88" s="19" t="s">
         <v>76</v>
@@ -3388,7 +3388,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>145</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
         <v>130</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="35"/>
       <c r="B91" s="19" t="s">
         <v>76</v>
@@ -3456,7 +3456,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="35"/>
       <c r="B92" s="19" t="s">
         <v>76</v>
@@ -3477,7 +3477,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="35"/>
       <c r="B93" s="19" t="s">
         <v>76</v>
@@ -3498,7 +3498,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>147</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>65</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
         <v>107</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>108</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>109</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>39</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>40</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>42</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
         <v>44</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>46</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>48</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>90</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>49</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="19" t="s">
         <v>82</v>
@@ -3797,7 +3797,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="19" t="s">
         <v>82</v>
@@ -3818,7 +3818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
       <c r="B109" s="19" t="s">
         <v>82</v>
@@ -3839,7 +3839,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
       <c r="B110" s="19" t="s">
         <v>82</v>
@@ -3858,7 +3858,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>96</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
         <v>97</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
         <v>98</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
       <c r="B114" s="19" t="s">
         <v>82</v>
@@ -3945,7 +3945,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
       <c r="B115" s="19" t="s">
         <v>82</v>
@@ -3964,7 +3964,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>51</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>52</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>93</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>53</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
       <c r="B120" s="19" t="s">
         <v>82</v>
@@ -4077,7 +4077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
       <c r="B121" s="19" t="s">
         <v>82</v>
@@ -4098,7 +4098,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="19" t="s">
         <v>82</v>
@@ -4119,7 +4119,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
       <c r="B123" s="19" t="s">
         <v>82</v>
@@ -4140,7 +4140,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>54</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
         <v>97</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
         <v>98</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
       <c r="B127" s="19" t="s">
         <v>82</v>
@@ -4221,7 +4221,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
       <c r="B128" s="19" t="s">
         <v>82</v>
@@ -4239,7 +4239,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>198</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>200</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>201</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>199</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
       <c r="B133" s="19" t="s">
         <v>82</v>
@@ -4322,7 +4322,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
       <c r="B134" s="19" t="s">
         <v>82</v>
@@ -4337,7 +4337,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
       <c r="B135" s="19" t="s">
         <v>82</v>
@@ -4352,7 +4352,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="19"/>
       <c r="B136" s="19" t="s">
         <v>82</v>
@@ -4367,7 +4367,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="19" t="s">
         <v>202</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="19" t="s">
         <v>97</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>98</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="19"/>
       <c r="B140" s="19" t="s">
         <v>82</v>
@@ -4433,7 +4433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="19"/>
       <c r="B141" s="19" t="s">
         <v>82</v>
@@ -4448,7 +4448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="19" t="s">
         <v>203</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>205</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
         <v>206</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>204</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="19"/>
       <c r="B146" s="19" t="s">
         <v>82</v>
@@ -4531,7 +4531,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
       <c r="B147" s="19" t="s">
         <v>82</v>
@@ -4546,7 +4546,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="19"/>
       <c r="B148" s="19" t="s">
         <v>82</v>
@@ -4561,7 +4561,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="19"/>
       <c r="B149" s="19" t="s">
         <v>82</v>
@@ -4576,7 +4576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
         <v>207</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>97</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="19" t="s">
         <v>98</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
       <c r="B153" s="19" t="s">
         <v>82</v>
@@ -4642,7 +4642,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="19"/>
       <c r="B154" s="19" t="s">
         <v>82</v>
@@ -4657,7 +4657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="19" t="s">
         <v>209</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="19" t="s">
         <v>208</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="19" t="s">
         <v>210</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="19" t="s">
         <v>211</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
       <c r="B159" s="19" t="s">
         <v>82</v>
@@ -4740,7 +4740,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
       <c r="B160" s="19" t="s">
         <v>82</v>
@@ -4755,7 +4755,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="19"/>
       <c r="B161" s="19" t="s">
         <v>82</v>
@@ -4770,7 +4770,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="19"/>
       <c r="B162" s="19" t="s">
         <v>82</v>
@@ -4785,7 +4785,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
         <v>212</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
         <v>97</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>98</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="19"/>
       <c r="B166" s="19" t="s">
         <v>82</v>
@@ -4851,7 +4851,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="19"/>
       <c r="B167" s="19" t="s">
         <v>82</v>
@@ -4866,489 +4866,484 @@
         <v>179</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20"/>
       <c r="C168" s="21"/>
       <c r="D168" s="22"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="21"/>
       <c r="D169" s="22"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="21"/>
       <c r="D170" s="22"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="21"/>
       <c r="D171" s="22"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="21"/>
       <c r="D172" s="22"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="21"/>
       <c r="D173" s="22"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="21"/>
       <c r="D174" s="22"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20"/>
       <c r="C175" s="21"/>
       <c r="D175" s="22"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20"/>
       <c r="C176" s="21"/>
       <c r="D176" s="22"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20"/>
       <c r="C177" s="21"/>
       <c r="D177" s="22"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="20"/>
       <c r="B178" s="20"/>
       <c r="C178" s="21"/>
       <c r="D178" s="22"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20"/>
       <c r="C179" s="21"/>
       <c r="D179" s="22"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20"/>
       <c r="C180" s="21"/>
       <c r="D180" s="22"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20"/>
       <c r="C181" s="21"/>
       <c r="D181" s="22"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20"/>
       <c r="C182" s="21"/>
       <c r="D182" s="22"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="20"/>
       <c r="B183" s="20"/>
       <c r="C183" s="21"/>
       <c r="D183" s="22"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20"/>
       <c r="C184" s="21"/>
       <c r="D184" s="22"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20"/>
       <c r="C185" s="21"/>
       <c r="D185" s="22"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="21"/>
       <c r="D186" s="22"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="21"/>
       <c r="D187" s="22"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="20"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="22"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20"/>
       <c r="C189" s="21"/>
       <c r="D189" s="22"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="21"/>
       <c r="D190" s="22"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" s="21"/>
       <c r="D191" s="22"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" s="21"/>
       <c r="D192" s="22"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20"/>
       <c r="C193" s="21"/>
       <c r="D193" s="22"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
       <c r="C194" s="21"/>
       <c r="D194" s="22"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" s="21"/>
       <c r="D195" s="22"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20"/>
       <c r="C196" s="21"/>
       <c r="D196" s="22"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" s="21"/>
       <c r="D197" s="22"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20"/>
       <c r="C198" s="21"/>
       <c r="D198" s="22"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" s="21"/>
       <c r="D199" s="22"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" s="21"/>
       <c r="D200" s="22"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
       <c r="C201" s="21"/>
       <c r="D201" s="22"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" s="21"/>
       <c r="D202" s="22"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
       <c r="C203" s="21"/>
       <c r="D203" s="22"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
       <c r="C204" s="21"/>
       <c r="D204" s="22"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
       <c r="C205" s="21"/>
       <c r="D205" s="22"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
       <c r="C206" s="21"/>
       <c r="D206" s="22"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
       <c r="C207" s="21"/>
       <c r="D207" s="22"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
       <c r="C208" s="21"/>
       <c r="D208" s="22"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20"/>
       <c r="C209" s="21"/>
       <c r="D209" s="22"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20"/>
       <c r="C210" s="21"/>
       <c r="D210" s="22"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20"/>
       <c r="C211" s="21"/>
       <c r="D211" s="22"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20"/>
       <c r="C212" s="21"/>
       <c r="D212" s="22"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20"/>
       <c r="C213" s="21"/>
       <c r="D213" s="22"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20"/>
       <c r="C214" s="21"/>
       <c r="D214" s="22"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20"/>
       <c r="C215" s="21"/>
       <c r="D215" s="22"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20"/>
       <c r="C216" s="21"/>
       <c r="D216" s="22"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="20"/>
       <c r="B217" s="20"/>
       <c r="C217" s="21"/>
       <c r="D217" s="22"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20"/>
       <c r="C218" s="21"/>
       <c r="D218" s="22"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20"/>
       <c r="C219" s="21"/>
       <c r="D219" s="22"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20"/>
       <c r="C220" s="21"/>
       <c r="D220" s="22"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20"/>
       <c r="C221" s="21"/>
       <c r="D221" s="22"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20"/>
       <c r="C222" s="21"/>
       <c r="D222" s="22"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20"/>
       <c r="C223" s="21"/>
       <c r="D223" s="22"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20"/>
       <c r="C224" s="21"/>
       <c r="D224" s="22"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20"/>
       <c r="C225" s="21"/>
       <c r="D225" s="22"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20"/>
       <c r="C226" s="21"/>
       <c r="D226" s="22"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20"/>
       <c r="C227" s="21"/>
       <c r="D227" s="22"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20"/>
       <c r="C228" s="21"/>
       <c r="D228" s="22"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20"/>
       <c r="C229" s="21"/>
       <c r="D229" s="22"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20"/>
       <c r="C230" s="21"/>
       <c r="D230" s="22"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20"/>
       <c r="C231" s="21"/>
       <c r="D231" s="22"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20"/>
       <c r="C232" s="21"/>
       <c r="D232" s="22"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20"/>
       <c r="C233" s="21"/>
       <c r="D233" s="22"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="B234" s="20"/>
       <c r="C234" s="21"/>
       <c r="D234" s="22"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20"/>
       <c r="C235" s="21"/>
       <c r="D235" s="22"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20"/>
       <c r="C236" s="21"/>
       <c r="D236" s="22"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20"/>
       <c r="C237" s="21"/>
       <c r="D237" s="22"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20"/>
       <c r="C238" s="21"/>
       <c r="D238" s="22"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="C239" s="21"/>
       <c r="D239" s="22"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="C240" s="21"/>
       <c r="D240" s="22"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="C241" s="21"/>
       <c r="D241" s="22"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="C242" s="21"/>
       <c r="D242" s="22"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="C243" s="21"/>
       <c r="D243" s="22"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="C244" s="21"/>
       <c r="D244" s="22"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="C245" s="21"/>
       <c r="D245" s="22"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="C246" s="21"/>
       <c r="D246" s="22"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="C247" s="21"/>
       <c r="D247" s="22"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="C248" s="21"/>
       <c r="D248" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A64:A67"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
@@ -5357,6 +5352,11 @@
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A64:A67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="20">
@@ -5437,22 +5437,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B2ED1-E60A-481E-A183-520033C5AF7F}">
   <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="64.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>perennial deciduous</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>Poorter</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>Martinez-Vilalta</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>143</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>66</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>125</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>127</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>150</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
         <v>161</v>
@@ -5862,7 +5862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>152</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>163</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>155</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>159</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>167</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>158</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>25</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
         <v>75</v>
@@ -6051,7 +6051,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="9" t="s">
         <v>75</v>
@@ -6072,7 +6072,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="9" t="s">
         <v>75</v>
@@ -6093,7 +6093,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>26</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="9" t="s">
         <v>75</v>
@@ -6137,7 +6137,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="9" t="s">
         <v>75</v>
@@ -6158,7 +6158,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="9" t="s">
         <v>75</v>
@@ -6179,7 +6179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>132</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="33" t="s">
         <v>75</v>
@@ -6217,7 +6217,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>28</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
@@ -6261,7 +6261,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="9" t="s">
         <v>75</v>
@@ -6281,7 +6281,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="39"/>
       <c r="B40" s="9" t="s">
         <v>75</v>
@@ -6301,7 +6301,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="9" t="s">
         <v>75</v>
@@ -6321,7 +6321,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
       <c r="B42" s="9" t="s">
         <v>75</v>
@@ -6341,7 +6341,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
         <v>33</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="9" t="s">
         <v>75</v>
@@ -6386,7 +6386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="9" t="s">
         <v>75</v>
@@ -6407,7 +6407,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="9" t="s">
         <v>75</v>
@@ -6428,7 +6428,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
         <v>62</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="9" t="s">
         <v>75</v>
@@ -6480,7 +6480,7 @@
         <v>0.3979400086720376</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="9" t="s">
         <v>75</v>
@@ -6509,7 +6509,7 @@
         <v>1.5740312677277188</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="9" t="s">
         <v>75</v>
@@ -6530,7 +6530,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>180</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
         <v>138</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="9" t="s">
         <v>75</v>
@@ -6597,7 +6597,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="9" t="s">
         <v>75</v>
@@ -6619,7 +6619,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="9" t="s">
         <v>75</v>
@@ -6641,7 +6641,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
         <v>139</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="9" t="s">
         <v>75</v>
@@ -6687,7 +6687,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="9" t="s">
         <v>75</v>
@@ -6709,7 +6709,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="9" t="s">
         <v>75</v>
@@ -6731,7 +6731,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
         <v>140</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="9" t="s">
         <v>75</v>
@@ -6777,7 +6777,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="9" t="s">
         <v>75</v>
@@ -6799,7 +6799,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="B63" s="9" t="s">
         <v>75</v>
@@ -6821,7 +6821,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
         <v>141</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="9" t="s">
         <v>75</v>
@@ -6867,7 +6867,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="9" t="s">
         <v>75</v>
@@ -6889,7 +6889,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="9" t="s">
         <v>75</v>
@@ -6911,7 +6911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>99</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>35</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>37</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>181</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>106</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
         <v>101</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>171</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>102</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>103</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>114</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>116</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>173</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>117</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>119</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
         <v>186</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="35"/>
       <c r="B83" s="19" t="s">
         <v>76</v>
@@ -7248,7 +7248,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
         <v>188</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="35"/>
       <c r="B85" s="19" t="s">
         <v>76</v>
@@ -7288,7 +7288,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
         <v>189</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="35"/>
       <c r="B87" s="19" t="s">
         <v>76</v>
@@ -7328,7 +7328,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="35"/>
       <c r="B88" s="19" t="s">
         <v>76</v>
@@ -7347,7 +7347,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>145</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>130</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="19" t="s">
         <v>76</v>
@@ -7415,7 +7415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="19" t="s">
         <v>76</v>
@@ -7436,7 +7436,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="19" t="s">
         <v>76</v>
@@ -7457,7 +7457,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>147</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>65</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
         <v>107</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>108</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>109</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>39</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>40</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>42</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
         <v>44</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>46</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>48</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>90</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>49</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="19" t="s">
         <v>82</v>
@@ -7752,7 +7752,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="19" t="s">
         <v>82</v>
@@ -7773,7 +7773,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
       <c r="B109" s="19" t="s">
         <v>82</v>
@@ -7794,7 +7794,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
       <c r="B110" s="19" t="s">
         <v>82</v>
@@ -7813,7 +7813,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>50</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="19"/>
       <c r="B112" s="19" t="s">
         <v>82</v>
@@ -7857,7 +7857,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
       <c r="B113" s="19" t="s">
         <v>82</v>
@@ -7878,7 +7878,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
       <c r="B114" s="19" t="s">
         <v>82</v>
@@ -7902,7 +7902,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
       <c r="B115" s="19" t="s">
         <v>82</v>
@@ -7921,7 +7921,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>51</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>52</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>93</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>53</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
       <c r="B120" s="19" t="s">
         <v>82</v>
@@ -8034,7 +8034,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
       <c r="B121" s="19" t="s">
         <v>82</v>
@@ -8055,7 +8055,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="19" t="s">
         <v>82</v>
@@ -8076,7 +8076,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
       <c r="B123" s="19" t="s">
         <v>82</v>
@@ -8097,7 +8097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>54</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="19"/>
       <c r="B125" s="19" t="s">
         <v>82</v>
@@ -8141,7 +8141,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="19"/>
       <c r="B126" s="19" t="s">
         <v>82</v>
@@ -8162,7 +8162,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
       <c r="B127" s="19" t="s">
         <v>82</v>
@@ -8183,7 +8183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
       <c r="B128" s="19" t="s">
         <v>82</v>
@@ -8204,7 +8204,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>198</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>200</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>201</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>199</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
       <c r="B133" s="19" t="s">
         <v>82</v>
@@ -8302,7 +8302,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
       <c r="B134" s="19" t="s">
         <v>82</v>
@@ -8320,7 +8320,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
       <c r="B135" s="19" t="s">
         <v>82</v>
@@ -8338,7 +8338,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="19"/>
       <c r="B136" s="19" t="s">
         <v>82</v>
@@ -8356,7 +8356,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="19" t="s">
         <v>202</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="19" t="s">
         <v>97</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>98</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="19"/>
       <c r="B140" s="19" t="s">
         <v>82</v>
@@ -8434,7 +8434,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="19"/>
       <c r="B141" s="19" t="s">
         <v>82</v>
@@ -8452,7 +8452,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="19" t="s">
         <v>203</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>205</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
         <v>206</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>204</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="19"/>
       <c r="B146" s="19" t="s">
         <v>82</v>
@@ -8550,7 +8550,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
       <c r="B147" s="19" t="s">
         <v>82</v>
@@ -8568,7 +8568,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="19"/>
       <c r="B148" s="19" t="s">
         <v>82</v>
@@ -8586,7 +8586,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="19"/>
       <c r="B149" s="19" t="s">
         <v>82</v>
@@ -8604,7 +8604,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
         <v>207</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>97</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="19" t="s">
         <v>98</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
       <c r="B153" s="19" t="s">
         <v>82</v>
@@ -8682,7 +8682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="19"/>
       <c r="B154" s="19" t="s">
         <v>82</v>
@@ -8700,7 +8700,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="19" t="s">
         <v>209</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="19" t="s">
         <v>208</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="19" t="s">
         <v>210</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="19" t="s">
         <v>211</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
       <c r="B159" s="19" t="s">
         <v>82</v>
@@ -8798,7 +8798,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
       <c r="B160" s="19" t="s">
         <v>82</v>
@@ -8816,7 +8816,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="19"/>
       <c r="B161" s="19" t="s">
         <v>82</v>
@@ -8834,7 +8834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="19"/>
       <c r="B162" s="19" t="s">
         <v>82</v>
@@ -8852,7 +8852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
         <v>212</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
         <v>97</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>98</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="19"/>
       <c r="B166" s="19" t="s">
         <v>82</v>
@@ -8930,7 +8930,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="19"/>
       <c r="B167" s="19" t="s">
         <v>82</v>
@@ -8948,487 +8948,487 @@
         <v>179</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20"/>
       <c r="C168" s="21"/>
       <c r="D168" s="22"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="21"/>
       <c r="D169" s="22"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="21"/>
       <c r="D170" s="22"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="21"/>
       <c r="D171" s="22"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="21"/>
       <c r="D172" s="22"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="21"/>
       <c r="D173" s="22"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="21"/>
       <c r="D174" s="22"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20"/>
       <c r="C175" s="21"/>
       <c r="D175" s="22"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20"/>
       <c r="C176" s="21"/>
       <c r="D176" s="22"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20"/>
       <c r="C177" s="21"/>
       <c r="D177" s="22"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="20"/>
       <c r="B178" s="20"/>
       <c r="C178" s="21"/>
       <c r="D178" s="22"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20"/>
       <c r="C179" s="21"/>
       <c r="D179" s="22"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20"/>
       <c r="C180" s="21"/>
       <c r="D180" s="22"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20"/>
       <c r="C181" s="21"/>
       <c r="D181" s="22"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20"/>
       <c r="C182" s="21"/>
       <c r="D182" s="22"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="20"/>
       <c r="B183" s="20"/>
       <c r="C183" s="21"/>
       <c r="D183" s="22"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20"/>
       <c r="C184" s="21"/>
       <c r="D184" s="22"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20"/>
       <c r="C185" s="21"/>
       <c r="D185" s="22"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="21"/>
       <c r="D186" s="22"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="21"/>
       <c r="D187" s="22"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="20"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="22"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20"/>
       <c r="C189" s="21"/>
       <c r="D189" s="22"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="21"/>
       <c r="D190" s="22"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" s="21"/>
       <c r="D191" s="22"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" s="21"/>
       <c r="D192" s="22"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20"/>
       <c r="C193" s="21"/>
       <c r="D193" s="22"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
       <c r="C194" s="21"/>
       <c r="D194" s="22"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" s="21"/>
       <c r="D195" s="22"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20"/>
       <c r="C196" s="21"/>
       <c r="D196" s="22"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" s="21"/>
       <c r="D197" s="22"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20"/>
       <c r="C198" s="21"/>
       <c r="D198" s="22"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" s="21"/>
       <c r="D199" s="22"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" s="21"/>
       <c r="D200" s="22"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
       <c r="C201" s="21"/>
       <c r="D201" s="22"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" s="21"/>
       <c r="D202" s="22"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
       <c r="C203" s="21"/>
       <c r="D203" s="22"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
       <c r="C204" s="21"/>
       <c r="D204" s="22"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
       <c r="C205" s="21"/>
       <c r="D205" s="22"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
       <c r="C206" s="21"/>
       <c r="D206" s="22"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
       <c r="C207" s="21"/>
       <c r="D207" s="22"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
       <c r="C208" s="21"/>
       <c r="D208" s="22"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20"/>
       <c r="C209" s="21"/>
       <c r="D209" s="22"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20"/>
       <c r="C210" s="21"/>
       <c r="D210" s="22"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20"/>
       <c r="C211" s="21"/>
       <c r="D211" s="22"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20"/>
       <c r="C212" s="21"/>
       <c r="D212" s="22"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20"/>
       <c r="C213" s="21"/>
       <c r="D213" s="22"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20"/>
       <c r="C214" s="21"/>
       <c r="D214" s="22"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20"/>
       <c r="C215" s="21"/>
       <c r="D215" s="22"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20"/>
       <c r="C216" s="21"/>
       <c r="D216" s="22"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="20"/>
       <c r="B217" s="20"/>
       <c r="C217" s="21"/>
       <c r="D217" s="22"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20"/>
       <c r="C218" s="21"/>
       <c r="D218" s="22"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20"/>
       <c r="C219" s="21"/>
       <c r="D219" s="22"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20"/>
       <c r="C220" s="21"/>
       <c r="D220" s="22"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20"/>
       <c r="C221" s="21"/>
       <c r="D221" s="22"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20"/>
       <c r="C222" s="21"/>
       <c r="D222" s="22"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20"/>
       <c r="C223" s="21"/>
       <c r="D223" s="22"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20"/>
       <c r="C224" s="21"/>
       <c r="D224" s="22"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20"/>
       <c r="C225" s="21"/>
       <c r="D225" s="22"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20"/>
       <c r="C226" s="21"/>
       <c r="D226" s="22"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20"/>
       <c r="C227" s="21"/>
       <c r="D227" s="22"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20"/>
       <c r="C228" s="21"/>
       <c r="D228" s="22"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20"/>
       <c r="C229" s="21"/>
       <c r="D229" s="22"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20"/>
       <c r="C230" s="21"/>
       <c r="D230" s="22"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20"/>
       <c r="C231" s="21"/>
       <c r="D231" s="22"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20"/>
       <c r="C232" s="21"/>
       <c r="D232" s="22"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20"/>
       <c r="C233" s="21"/>
       <c r="D233" s="22"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="B234" s="20"/>
       <c r="C234" s="21"/>
       <c r="D234" s="22"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20"/>
       <c r="C235" s="21"/>
       <c r="D235" s="22"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20"/>
       <c r="C236" s="21"/>
       <c r="D236" s="22"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20"/>
       <c r="C237" s="21"/>
       <c r="D237" s="22"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20"/>
       <c r="C238" s="21"/>
       <c r="D238" s="22"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20"/>
       <c r="C239" s="21"/>
       <c r="D239" s="22"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20"/>
       <c r="C240" s="21"/>
       <c r="D240" s="22"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20"/>
       <c r="C241" s="21"/>
       <c r="D241" s="22"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20"/>
       <c r="C242" s="21"/>
       <c r="D242" s="22"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20"/>
       <c r="C243" s="21"/>
       <c r="D243" s="22"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20"/>
       <c r="C244" s="21"/>
       <c r="D244" s="22"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20"/>
       <c r="C245" s="21"/>
       <c r="D245" s="22"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20"/>
       <c r="C246" s="21"/>
       <c r="D246" s="22"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20"/>
       <c r="C247" s="21"/>
       <c r="D247" s="22"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20"/>
       <c r="C248" s="21"/>
@@ -9436,12 +9436,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A43:A46"/>
@@ -9449,6 +9443,12 @@
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E18 E35" xr:uid="{FEC1871F-0B63-45CE-84E2-697ABFCCA571}">

--- a/docs/source/tutorials/GenVeg/GenVeg_Dune_Simulation.xlsx
+++ b/docs/source/tutorials/GenVeg/GenVeg_Dune_Simulation.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\landlab\docs\source\tutorials\GenVeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39442106-5EE7-4286-9FF4-57EE3825AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A97EA2-0021-47E8-B9D0-C71D22749FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="BTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$H$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$H$144</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">DB!$K$1:$K$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="240">
   <si>
     <t>Parameter</t>
   </si>
@@ -488,9 +488,6 @@
     <t>unit_cost_dispersal</t>
   </si>
   <si>
-    <t>Maximum root system depth (m)</t>
-  </si>
-  <si>
     <t>max_height</t>
   </si>
   <si>
@@ -925,6 +922,54 @@
   </si>
   <si>
     <t>belowground</t>
+  </si>
+  <si>
+    <t>Death rate (1/day)</t>
+  </si>
+  <si>
+    <t>death_rate</t>
+  </si>
+  <si>
+    <t>Basal diameter (m)</t>
+  </si>
+  <si>
+    <t>basal_dia</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>shoot_sys_width</t>
+  </si>
+  <si>
+    <t>Shoot system width or Canopy diameter (m)</t>
+  </si>
+  <si>
+    <t>Plant height (m)</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Root system width (m)</t>
+  </si>
+  <si>
+    <t>root_sys_width</t>
+  </si>
+  <si>
+    <t>Root depth (m)</t>
+  </si>
+  <si>
+    <t>root_depth</t>
+  </si>
+  <si>
+    <t>default uses relationships from Gao et al 2024 and Conti; min-max fits an long linear relationship between the minimum and maximum dimensions assuming proportionality with biomass or other dimensions by plant habit; for two-parameter relationships, the mean is used as well; user-defined requires the user to provide the best-fit relationship</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1139,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1191,7 +1236,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,15 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1532,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59430052-850A-4E52-8B29-0C7825B169C3}">
-  <dimension ref="A1:K253"/>
+  <dimension ref="A1:K264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1569,13 +1617,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1591,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -1609,13 +1657,13 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" t="str">
         <f>E7</f>
@@ -1640,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K4" t="str">
-        <f>E41</f>
+        <f>E45</f>
         <v>Poorter</v>
       </c>
     </row>
@@ -1665,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K5" t="str">
-        <f>E56</f>
+        <f>E60</f>
         <v>Martinez-Vilalta</v>
       </c>
     </row>
@@ -1690,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K6" t="str">
-        <f>E76</f>
+        <f>E80</f>
         <v>min-max</v>
       </c>
     </row>
@@ -1709,13 +1757,13 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1730,34 +1778,34 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1778,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1794,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -1815,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1836,18 +1884,18 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="15">
@@ -1857,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1878,18 +1926,18 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="15">
@@ -1899,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1920,18 +1968,18 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="15">
@@ -1941,2244 +1989,2181 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="36"/>
+      <c r="B20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="36"/>
+      <c r="B21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="8"/>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="15">
-        <v>70</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="15">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15">
-        <v>300</v>
-      </c>
-      <c r="F22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="15">
-        <v>300</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="8"/>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>155</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="15">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="15">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>167</v>
+      <c r="A26" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="15">
+        <v>300</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="15">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="15">
+        <v>209</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="15">
+        <v>85</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="15">
         <v>0.3</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="8"/>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
-      <c r="B29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0.03</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.01</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="8"/>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="40" t="s">
-        <v>220</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="37" t="s">
+        <v>217</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E32" s="15">
-        <v>1.6</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="15">
-        <v>2.1800000000000002</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>88</v>
       </c>
       <c r="E34" s="15">
-        <v>2.1800000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="34"/>
       <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="15">
-        <v>1.6</v>
+        <v>0.01</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="38" t="s">
         <v>219</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="15">
-        <v>1.444</v>
+        <v>1.6</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="15">
-        <v>1.5129999999999999</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>88</v>
       </c>
       <c r="E38" s="15">
-        <v>1.4630000000000001</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="15">
-        <v>1.4139999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="8"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1.444</v>
+      </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
-        <v>28</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="38"/>
       <c r="B41" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1.5129999999999999</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="36"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="38"/>
       <c r="B42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1.4630000000000001</v>
+      </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="38"/>
       <c r="B43" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1.4139999999999999</v>
+      </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="36"/>
-      <c r="B44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="15"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="8"/>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="B45" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="15"/>
+        <v>175</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="15"/>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
-        <v>33</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="40"/>
       <c r="B48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="15">
-        <v>0.01</v>
-      </c>
+      <c r="C48" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="15"/>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
       <c r="B49" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0.2</v>
-      </c>
+      <c r="C49" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="15"/>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="40"/>
       <c r="B50" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="C50" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="15"/>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="40"/>
       <c r="B51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="15">
-        <v>0</v>
-      </c>
+      <c r="C51" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="15"/>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="34" t="s">
-        <v>62</v>
+      <c r="A52" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E52" s="15">
-        <v>10.9</v>
+        <v>0.01</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>87</v>
       </c>
       <c r="E53" s="15">
-        <v>6.68</v>
+        <v>0.2</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="E54" s="15">
-        <v>10.02</v>
+        <v>0.5</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="15" t="s">
-        <v>178</v>
+        <v>63</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="15">
+        <v>10.9</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="34" t="s">
-        <v>138</v>
-      </c>
+      <c r="A57" s="36"/>
       <c r="B57" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="15">
+        <v>6.68</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16" t="s">
-        <v>137</v>
+      <c r="E58" s="15">
+        <v>10.02</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="34"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="15">
+        <v>18</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="34"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="B60" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="36" t="s">
         <v>137</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="34" t="s">
-        <v>139</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="34"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="34"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
-        <v>140</v>
+      <c r="A65" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="34"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="34"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="34" t="s">
-        <v>141</v>
+      <c r="A69" s="36" t="s">
+        <v>139</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="36"/>
+      <c r="B74" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="36"/>
+      <c r="B75" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="36"/>
+      <c r="B76" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="8"/>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="19" t="s">
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="8"/>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="15">
+      <c r="D78" s="18"/>
+      <c r="E78" s="15">
         <v>100</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="19" t="s">
+      <c r="F78" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B79" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="15">
+      <c r="D79" s="18"/>
+      <c r="E79" s="15">
         <v>9</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="19" t="s">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="D80" s="18"/>
+      <c r="E80" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="C81" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H81" t="s">
         <v>183</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="19" t="s">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="36"/>
+      <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="15">
+      <c r="C82" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="H82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="36"/>
+      <c r="B83" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E83" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="36"/>
+      <c r="B85" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="H85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="36"/>
+      <c r="B86" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E86" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="H86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="15">
         <f>0.91+3*0.007</f>
         <v>0.93100000000000005</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="15">
-        <v>1.45</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="15"/>
-      <c r="G87">
-        <v>0</v>
-      </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="34"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>187</v>
+        <v>234</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E88" s="15"/>
-      <c r="G88">
-        <v>0</v>
-      </c>
       <c r="H88" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="34" t="s">
-        <v>188</v>
-      </c>
+      <c r="A89" s="36"/>
       <c r="B89" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="15"/>
-      <c r="G89">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" s="15">
+        <v>0.16</v>
       </c>
       <c r="H89" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="34"/>
+      <c r="A90" s="36" t="s">
+        <v>235</v>
+      </c>
       <c r="B90" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" s="15"/>
-      <c r="G90">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="15">
+        <v>0.5</v>
       </c>
       <c r="H90" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="34" t="s">
-        <v>189</v>
-      </c>
+      <c r="A91" s="36"/>
       <c r="B91" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>29</v>
+        <v>236</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E91" s="15"/>
-      <c r="G91">
-        <v>0</v>
-      </c>
       <c r="H91" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="34"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E92" s="15"/>
-      <c r="G92">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E92" s="15">
+        <v>0.01</v>
       </c>
       <c r="H92" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="34"/>
+      <c r="A93" s="36" t="s">
+        <v>237</v>
+      </c>
       <c r="B93" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E93" s="15"/>
-      <c r="G93">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="15">
+        <v>1.45</v>
       </c>
       <c r="H93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="19" t="s">
-        <v>145</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="36"/>
       <c r="B94" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="15">
-        <v>6.6309999999999997E-3</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="15"/>
       <c r="H94" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="34" t="s">
-        <v>130</v>
-      </c>
+      <c r="A95" s="36"/>
       <c r="B95" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>214</v>
+      <c r="C95" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="E95" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F95" t="s">
-        <v>110</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H95" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="34"/>
+      <c r="A96" s="36" t="s">
+        <v>185</v>
+      </c>
       <c r="B96" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E96" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="C96" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="15"/>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="34"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E97" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="C97" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="15"/>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="34"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="35"/>
       <c r="B98" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E98" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
-        <v>179</v>
-      </c>
+      <c r="C98" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="19" t="s">
-        <v>147</v>
+      <c r="A99" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="36"/>
+      <c r="B100" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="15"/>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="35"/>
+      <c r="B101" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="15"/>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="36"/>
+      <c r="B103" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" s="15"/>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="36"/>
+      <c r="B104" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="15"/>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="15">
+        <v>6.6309999999999997E-3</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E106" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>110</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="36"/>
+      <c r="B107" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="36"/>
+      <c r="B108" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E108" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="36"/>
+      <c r="B109" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="15">
+        <v>3</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="15">
-        <v>4</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="5" t="s">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="8"/>
-      <c r="G100">
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="8"/>
+      <c r="G111">
         <v>54</v>
       </c>
-      <c r="H100" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="19" t="s">
+      <c r="H111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B112" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C112" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="15">
+      <c r="D112" s="18"/>
+      <c r="E112" s="15">
         <v>0.93600000000000005</v>
       </c>
-      <c r="G101">
+      <c r="G112">
         <v>55</v>
       </c>
-      <c r="H101" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="19" t="s">
+      <c r="H112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B113" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C113" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="15">
+      <c r="D113" s="18"/>
+      <c r="E113" s="15">
         <v>0.5</v>
       </c>
-      <c r="G102">
+      <c r="G113">
         <v>56</v>
       </c>
-      <c r="H102" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="19" t="s">
+      <c r="H113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B114" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C114" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="15">
+      <c r="D114" s="18"/>
+      <c r="E114" s="15">
         <f>20*0.2*0.69</f>
         <v>2.76</v>
       </c>
-      <c r="G103">
+      <c r="G114">
         <v>57</v>
       </c>
-      <c r="H103" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="5" t="s">
+      <c r="H114" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104">
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115">
         <v>58</v>
       </c>
-      <c r="H104" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="19" t="s">
+      <c r="H115" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B116" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C116" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="15">
+      <c r="D116" s="18"/>
+      <c r="E116" s="15">
         <v>0.01</v>
       </c>
-      <c r="G105">
+      <c r="G116">
         <v>59</v>
       </c>
-      <c r="H105" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="19" t="s">
+      <c r="H116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B117" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C117" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="15">
+      <c r="D117" s="18"/>
+      <c r="E117" s="15">
         <v>365</v>
       </c>
-      <c r="H106" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="5" t="s">
+      <c r="H117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="8" t="s">
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G107">
+      <c r="G118">
         <v>60</v>
       </c>
-      <c r="H107" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="19" t="s">
+      <c r="H118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108" s="17" t="s">
+      <c r="B119" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="D108" s="18">
-        <v>1</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" t="s">
-        <v>89</v>
-      </c>
-      <c r="G108">
-        <v>61</v>
-      </c>
-      <c r="H108" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="18">
-        <v>1</v>
-      </c>
-      <c r="E109" s="15">
-        <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>94</v>
-      </c>
-      <c r="G109">
-        <v>62</v>
-      </c>
-      <c r="H109" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="18">
-        <v>1</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F110" t="s">
-        <v>95</v>
-      </c>
-      <c r="G110">
-        <v>63</v>
-      </c>
-      <c r="H110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D111" s="18">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>20</v>
-      </c>
-      <c r="G111">
-        <v>64</v>
-      </c>
-      <c r="H111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="18">
-        <v>1</v>
-      </c>
-      <c r="E112" s="15">
-        <v>30</v>
-      </c>
-      <c r="G112">
-        <v>65</v>
-      </c>
-      <c r="H112" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D113" s="18">
-        <v>1</v>
-      </c>
-      <c r="E113" s="15">
-        <v>70</v>
-      </c>
-      <c r="G113">
-        <v>66</v>
-      </c>
-      <c r="H113" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="18">
-        <v>1</v>
-      </c>
-      <c r="E114" s="15">
-        <v>100</v>
-      </c>
-      <c r="G114">
-        <v>67</v>
-      </c>
-      <c r="H114" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D115" s="18">
-        <v>1</v>
-      </c>
-      <c r="E115" s="15"/>
-      <c r="G115">
-        <v>68</v>
-      </c>
-      <c r="H115" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D116" s="18">
-        <v>1</v>
-      </c>
-      <c r="E116" s="15">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>69</v>
-      </c>
-      <c r="H116" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117" s="18">
-        <v>1</v>
-      </c>
-      <c r="E117" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G117">
-        <v>75</v>
-      </c>
-      <c r="H117" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D118" s="18">
-        <v>1</v>
-      </c>
-      <c r="E118" s="15">
-        <v>0.67</v>
-      </c>
-      <c r="G118">
-        <v>76</v>
-      </c>
-      <c r="H118" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="D119" s="18">
         <v>1</v>
       </c>
-      <c r="E119" s="15">
-        <v>1</v>
+      <c r="E119" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119">
+        <v>61</v>
       </c>
       <c r="H119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="19"/>
+      <c r="A120" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="B120" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D120" s="18">
         <v>1</v>
       </c>
-      <c r="E120" s="15"/>
+      <c r="E120" s="15">
+        <v>207</v>
+      </c>
+      <c r="F120" t="s">
+        <v>94</v>
+      </c>
       <c r="G120">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="19" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D121" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>129</v>
+        <v>92</v>
+      </c>
+      <c r="F121" t="s">
+        <v>95</v>
       </c>
       <c r="G121">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D122" s="18">
-        <v>2</v>
-      </c>
-      <c r="E122" s="15">
-        <v>365</v>
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>20</v>
       </c>
       <c r="G122">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="A123" s="19"/>
       <c r="B123" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D123" s="18">
-        <v>2</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="E123" s="15">
+        <v>30</v>
       </c>
       <c r="G123">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="A124" s="19"/>
       <c r="B124" s="19" t="s">
         <v>82</v>
       </c>
@@ -4186,16 +4171,16 @@
         <v>70</v>
       </c>
       <c r="D124" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" s="15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G124">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -4207,16 +4192,16 @@
         <v>70</v>
       </c>
       <c r="D125" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" s="15">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="G125">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -4228,63 +4213,65 @@
         <v>70</v>
       </c>
       <c r="D126" s="18">
-        <v>2</v>
-      </c>
-      <c r="E126" s="15">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E126" s="15"/>
       <c r="G126">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="19"/>
+      <c r="A127" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="B127" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D127" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" s="15">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="19"/>
+      <c r="A128" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="B128" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D128" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" s="15">
-        <v>1.69</v>
+        <v>0.01</v>
       </c>
       <c r="G128">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="19" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>82</v>
@@ -4293,22 +4280,20 @@
         <v>71</v>
       </c>
       <c r="D129" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" s="15">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G129">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H129" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="A130" s="19"/>
       <c r="B130" s="19" t="s">
         <v>82</v>
       </c>
@@ -4316,19 +4301,17 @@
         <v>71</v>
       </c>
       <c r="D130" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="A131" s="19"/>
       <c r="B131" s="19" t="s">
         <v>82</v>
       </c>
@@ -4336,106 +4319,131 @@
         <v>71</v>
       </c>
       <c r="D131" s="18">
-        <v>2</v>
-      </c>
-      <c r="E131" s="15">
-        <v>0.02</v>
+        <v>1</v>
+      </c>
+      <c r="E131" s="15"/>
+      <c r="G131">
+        <v>77</v>
       </c>
       <c r="H131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="19"/>
+      <c r="A132" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="B132" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
       </c>
-      <c r="E132" s="15">
-        <v>1</v>
+      <c r="E132" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G132">
+        <v>78</v>
       </c>
       <c r="H132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="19"/>
+      <c r="A133" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="B133" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D133" s="18">
         <v>2</v>
       </c>
       <c r="E133" s="15">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="G133">
+        <v>79</v>
       </c>
       <c r="H133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="19" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D134" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G134">
+        <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="19" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D135" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E135" s="15">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>81</v>
       </c>
       <c r="H135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="19" t="s">
-        <v>201</v>
-      </c>
+      <c r="A136" s="19"/>
       <c r="B136" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D136" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E136" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="G136">
+        <v>82</v>
       </c>
       <c r="H136" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="A137" s="19"/>
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
@@ -4443,10 +4451,16 @@
         <v>70</v>
       </c>
       <c r="D137" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G137">
+        <v>83</v>
       </c>
       <c r="H137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -4458,10 +4472,16 @@
         <v>70</v>
       </c>
       <c r="D138" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E138" s="15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G138">
+        <v>84</v>
       </c>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -4473,45 +4493,64 @@
         <v>70</v>
       </c>
       <c r="D139" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E139" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="G139">
+        <v>85</v>
       </c>
       <c r="H139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="19"/>
+      <c r="A140" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="B140" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D140" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E140" s="15">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>86</v>
       </c>
       <c r="H140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="19"/>
+      <c r="A141" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="B141" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D141" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E141" s="15">
+        <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="19" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>82</v>
@@ -4520,16 +4559,17 @@
         <v>71</v>
       </c>
       <c r="D142" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E142" s="15">
+        <v>0.02</v>
       </c>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="A143" s="19"/>
       <c r="B143" s="19" t="s">
         <v>82</v>
       </c>
@@ -4537,16 +4577,17 @@
         <v>71</v>
       </c>
       <c r="D143" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E143" s="15">
+        <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="A144" s="19"/>
       <c r="B144" s="19" t="s">
         <v>82</v>
       </c>
@@ -4554,97 +4595,100 @@
         <v>71</v>
       </c>
       <c r="D144" s="18">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E144" s="15">
+        <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="19"/>
+      <c r="A145" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="B145" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D145" s="18">
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="19"/>
+      <c r="A146" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="B146" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D146" s="18">
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D147" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D148" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="19" t="s">
-        <v>206</v>
-      </c>
+      <c r="A149" s="19"/>
       <c r="B149" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D149" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="19" t="s">
-        <v>204</v>
-      </c>
+      <c r="A150" s="19"/>
       <c r="B150" s="19" t="s">
         <v>82</v>
       </c>
@@ -4652,10 +4696,10 @@
         <v>70</v>
       </c>
       <c r="D150" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
@@ -4667,10 +4711,10 @@
         <v>70</v>
       </c>
       <c r="D151" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -4682,45 +4726,49 @@
         <v>70</v>
       </c>
       <c r="D152" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="19"/>
+      <c r="A153" s="19" t="s">
+        <v>201</v>
+      </c>
       <c r="B153" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D153" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="19"/>
+      <c r="A154" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="B154" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D154" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>82</v>
@@ -4729,16 +4777,14 @@
         <v>71</v>
       </c>
       <c r="D155" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="A156" s="19"/>
       <c r="B156" s="19" t="s">
         <v>82</v>
       </c>
@@ -4746,16 +4792,14 @@
         <v>71</v>
       </c>
       <c r="D156" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="A157" s="19"/>
       <c r="B157" s="19" t="s">
         <v>82</v>
       </c>
@@ -4763,97 +4807,97 @@
         <v>71</v>
       </c>
       <c r="D157" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="19"/>
+      <c r="A158" s="19" t="s">
+        <v>202</v>
+      </c>
       <c r="B158" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D158" s="18">
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="19"/>
+      <c r="A159" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D159" s="18">
         <v>4</v>
       </c>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D160" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D161" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="19" t="s">
-        <v>210</v>
-      </c>
+      <c r="A162" s="19"/>
       <c r="B162" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D162" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="19" t="s">
-        <v>211</v>
-      </c>
+      <c r="A163" s="19"/>
       <c r="B163" s="19" t="s">
         <v>82</v>
       </c>
@@ -4861,10 +4905,10 @@
         <v>70</v>
       </c>
       <c r="D163" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -4876,10 +4920,10 @@
         <v>70</v>
       </c>
       <c r="D164" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -4891,45 +4935,49 @@
         <v>70</v>
       </c>
       <c r="D165" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="19"/>
+      <c r="A166" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="B166" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D166" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="19"/>
+      <c r="A167" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="B167" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D167" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="19" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>82</v>
@@ -4938,16 +4986,14 @@
         <v>71</v>
       </c>
       <c r="D168" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="A169" s="19"/>
       <c r="B169" s="19" t="s">
         <v>82</v>
       </c>
@@ -4955,16 +5001,14 @@
         <v>71</v>
       </c>
       <c r="D169" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="A170" s="19"/>
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
@@ -4972,157 +5016,270 @@
         <v>71</v>
       </c>
       <c r="D170" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="19"/>
+      <c r="A171" s="19" t="s">
+        <v>208</v>
+      </c>
       <c r="B171" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D171" s="18">
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="19"/>
+      <c r="A172" s="19" t="s">
+        <v>207</v>
+      </c>
       <c r="B172" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D172" s="18">
         <v>5</v>
       </c>
       <c r="H172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="20"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="22"/>
+      <c r="A173" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D173" s="18">
+        <v>5</v>
+      </c>
+      <c r="H173" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="20"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="22"/>
+      <c r="A174" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" s="18">
+        <v>5</v>
+      </c>
+      <c r="H174" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="22"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="18">
+        <v>5</v>
+      </c>
+      <c r="H175" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="20"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="22"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="20"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="22"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="22"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="20"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="22"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="20"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="22"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="20"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="22"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="20"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="22"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="20"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="22"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="19"/>
+      <c r="B176" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" s="18">
+        <v>5</v>
+      </c>
+      <c r="H176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="19"/>
+      <c r="B177" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" s="18">
+        <v>5</v>
+      </c>
+      <c r="H177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="19"/>
+      <c r="B178" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="18">
+        <v>5</v>
+      </c>
+      <c r="H178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D179" s="18">
+        <v>5</v>
+      </c>
+      <c r="H179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D180" s="18">
+        <v>5</v>
+      </c>
+      <c r="H180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" s="18">
+        <v>5</v>
+      </c>
+      <c r="H181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="19"/>
+      <c r="B182" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D182" s="18">
+        <v>5</v>
+      </c>
+      <c r="H182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="19"/>
+      <c r="B183" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D183" s="18">
+        <v>5</v>
+      </c>
+      <c r="H183" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="20"/>
       <c r="B184" s="20"/>
       <c r="C184" s="21"/>
       <c r="D184" s="22"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="20"/>
       <c r="B185" s="20"/>
       <c r="C185" s="21"/>
       <c r="D185" s="22"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="21"/>
       <c r="D186" s="22"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="21"/>
       <c r="D187" s="22"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="20"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="22"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="20"/>
       <c r="B189" s="20"/>
       <c r="C189" s="21"/>
       <c r="D189" s="22"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="21"/>
       <c r="D190" s="22"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" s="21"/>
       <c r="D191" s="22"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" s="21"/>
@@ -5436,70 +5593,142 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="20"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="21"/>
       <c r="D244" s="22"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="20"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="21"/>
       <c r="D245" s="22"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="20"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="21"/>
       <c r="D246" s="22"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="20"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="21"/>
       <c r="D247" s="22"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="20"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="21"/>
       <c r="D248" s="22"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="20"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="21"/>
       <c r="D249" s="22"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="20"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="21"/>
       <c r="D250" s="22"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="20"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="21"/>
       <c r="D251" s="22"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="20"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="21"/>
       <c r="D252" s="22"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="20"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="21"/>
       <c r="D253" s="22"/>
     </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="20"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="22"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="20"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="22"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="20"/>
+      <c r="C256" s="21"/>
+      <c r="D256" s="22"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="20"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="22"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="20"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="22"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="20"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="22"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="20"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="22"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="20"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="22"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="20"/>
+      <c r="C262" s="21"/>
+      <c r="D262" s="22"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="20"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="22"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="20"/>
+      <c r="C264" s="21"/>
+      <c r="D264" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A57:A60"/>
+  <mergeCells count="20">
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="21">
@@ -5512,10 +5741,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{FCAB33B4-E22D-416A-9EE8-1B6629F4B7A9}">
       <formula1>"angiosperm, gymnosperm"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E106" xr:uid="{2A9331BB-EEBF-40CD-B47D-E4013CB2D0AD}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E117" xr:uid="{2A9331BB-EEBF-40CD-B47D-E4013CB2D0AD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E107 E102 E104:E105 F104" xr:uid="{C20F82BC-B9F3-4514-8D12-0BF659884D61}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E118 E113 E115:E116 F115" xr:uid="{C20F82BC-B9F3-4514-8D12-0BF659884D61}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -5526,7 +5755,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{5620C1FF-B28B-4556-ADEF-5FA98FE67CB9}">
       <formula1>"C3, C4, CAM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E40 E19 E27" xr:uid="{D43B937F-2CE8-47D9-A978-7D336015DF11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E44 E23 E31" xr:uid="{D43B937F-2CE8-47D9-A978-7D336015DF11}">
       <formula1>"Annual, Herbaceous perennial, Woody perennial"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{6E5E4A37-6A5B-480B-8E8F-63973FC4A36F}">
@@ -5538,36 +5767,36 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{793E17DF-C558-4DAF-B608-9E20297CD619}">
       <formula1>"annual, perennial evergreen, perennial deciduous"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E110 E123" xr:uid="{C614F1BE-BCDD-4E7E-8FB4-A3D677A1BB44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E121 E134" xr:uid="{C614F1BE-BCDD-4E7E-8FB4-A3D677A1BB44}">
       <formula1>"year-round, during growing season, during dormant season"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20" xr:uid="{DC451139-D175-47A3-922A-D7E1D89FD320}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{DC451139-D175-47A3-922A-D7E1D89FD320}">
       <formula1>0</formula1>
       <formula2>250</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23" xr:uid="{348279D5-38F8-475A-AC64-035F5E3E4212}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27" xr:uid="{348279D5-38F8-475A-AC64-035F5E3E4212}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E25" xr:uid="{EACE6BD1-D6C3-4928-842D-C63840BE30AC}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:E29" xr:uid="{EACE6BD1-D6C3-4928-842D-C63840BE30AC}">
       <formula1>0</formula1>
       <formula2>900000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22" xr:uid="{4D91B116-B68A-4C95-AD47-FA9A88D15DD8}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26" xr:uid="{4D91B116-B68A-4C95-AD47-FA9A88D15DD8}">
       <formula1>0</formula1>
       <formula2>800000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{1507B952-3B7A-44BA-8085-6DFF3DB7EBFD}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25" xr:uid="{1507B952-3B7A-44BA-8085-6DFF3DB7EBFD}">
       <formula1>0</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41" xr:uid="{E2339C9A-2940-4141-B685-7BF33B5A8E51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45" xr:uid="{E2339C9A-2940-4141-B685-7BF33B5A8E51}">
       <formula1>"Poorter, user-defined allocation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56" xr:uid="{D19B13DA-06D3-4C4D-9900-E7890DE8817B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E60" xr:uid="{D19B13DA-06D3-4C4D-9900-E7890DE8817B}">
       <formula1>"Martinez-Vilalta, user-defined NSC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E76" xr:uid="{77DF1237-7A63-492D-A14F-5AB9AC22765E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80" xr:uid="{77DF1237-7A63-492D-A14F-5AB9AC22765E}">
       <formula1>"min-max, user-defined allometry, default"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{3D116903-B405-4900-ADF4-C113E5F8EB27}">
@@ -5618,13 +5847,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5640,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -5658,13 +5887,13 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" t="str">
         <f>E7</f>
@@ -5689,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K4" t="str">
         <f>E41</f>
@@ -5714,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K5" t="str">
         <f>E56</f>
@@ -5739,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5754,13 +5983,13 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -5775,34 +6004,34 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5823,7 +6052,7 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5839,7 +6068,7 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -5860,7 +6089,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5881,18 +6110,18 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="15">
@@ -5902,7 +6131,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5923,18 +6152,18 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="15">
@@ -5944,7 +6173,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -5965,18 +6194,18 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="15">
@@ -5986,7 +6215,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6002,42 +6231,42 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="15">
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="15">
@@ -6047,18 +6276,18 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="15">
@@ -6068,18 +6297,18 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="15">
@@ -6089,18 +6318,18 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="15">
@@ -6110,18 +6339,18 @@
         <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="15">
@@ -6131,36 +6360,36 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="15">
         <v>0.2</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26">
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -6171,11 +6400,11 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -6194,11 +6423,11 @@
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9" t="s">
         <v>75</v>
       </c>
@@ -6215,11 +6444,11 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9" t="s">
         <v>75</v>
       </c>
@@ -6236,11 +6465,11 @@
         <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="9" t="s">
         <v>75</v>
       </c>
@@ -6257,18 +6486,18 @@
         <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="40" t="s">
-        <v>220</v>
+      <c r="A32" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>86</v>
@@ -6280,16 +6509,16 @@
         <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>87</v>
@@ -6301,16 +6530,16 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>88</v>
@@ -6322,16 +6551,16 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>78</v>
@@ -6343,11 +6572,11 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -6366,11 +6595,11 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="36"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
@@ -6387,11 +6616,11 @@
         <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="36"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
@@ -6408,11 +6637,11 @@
         <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="36"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="9" t="s">
         <v>75</v>
       </c>
@@ -6429,12 +6658,12 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -6445,7 +6674,7 @@
         <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -6454,11 +6683,11 @@
         <v>75</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>30</v>
@@ -6467,11 +6696,11 @@
         <v>39</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -6484,18 +6713,18 @@
         <v>29</v>
       </c>
       <c r="E42" s="15"/>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="41" t="s">
         <v>85</v>
       </c>
       <c r="G42">
         <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="38"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="9" t="s">
         <v>75</v>
       </c>
@@ -6506,16 +6735,16 @@
         <v>31</v>
       </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="37"/>
+      <c r="F43" s="41"/>
       <c r="G43">
         <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="9" t="s">
         <v>75</v>
       </c>
@@ -6526,16 +6755,16 @@
         <v>32</v>
       </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="37"/>
+      <c r="F44" s="41"/>
       <c r="G44">
         <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="9" t="s">
         <v>75</v>
       </c>
@@ -6546,16 +6775,16 @@
         <v>29</v>
       </c>
       <c r="E45" s="15"/>
-      <c r="F45" s="37"/>
+      <c r="F45" s="41"/>
       <c r="G45">
         <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="9" t="s">
         <v>75</v>
       </c>
@@ -6566,16 +6795,16 @@
         <v>31</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="37"/>
+      <c r="F46" s="41"/>
       <c r="G46">
         <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="9" t="s">
         <v>75</v>
       </c>
@@ -6586,16 +6815,16 @@
         <v>32</v>
       </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="37"/>
+      <c r="F47" s="41"/>
       <c r="G47">
         <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -6614,11 +6843,11 @@
         <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="9" t="s">
         <v>75</v>
       </c>
@@ -6636,11 +6865,11 @@
         <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="9" t="s">
         <v>75</v>
       </c>
@@ -6657,11 +6886,11 @@
         <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="9" t="s">
         <v>75</v>
       </c>
@@ -6678,11 +6907,11 @@
         <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -6701,11 +6930,11 @@
         <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="9" t="s">
         <v>75</v>
       </c>
@@ -6722,7 +6951,7 @@
         <v>51</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M53">
         <f>E77/E78</f>
@@ -6734,7 +6963,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="9" t="s">
         <v>75</v>
       </c>
@@ -6751,7 +6980,7 @@
         <v>52</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M54">
         <f>E77/E83</f>
@@ -6763,7 +6992,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
@@ -6780,388 +7009,388 @@
         <v>53</v>
       </c>
       <c r="H55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G56">
         <v>54</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="34" t="s">
-        <v>138</v>
+      <c r="A57" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G57">
         <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G58">
         <v>56</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="34"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G59">
         <v>57</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" s="34"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G60">
         <v>58</v>
       </c>
       <c r="H60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" s="34" t="s">
-        <v>139</v>
+      <c r="A61" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G61">
         <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" s="34"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62">
         <v>60</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63" s="34"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63">
         <v>61</v>
       </c>
       <c r="H63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64">
         <v>62</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
-        <v>140</v>
+      <c r="A65" s="36" t="s">
+        <v>139</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G65">
         <v>63</v>
       </c>
       <c r="H65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="34"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G66">
         <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G67">
         <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="34"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G68">
         <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="34" t="s">
-        <v>141</v>
+      <c r="A69" s="36" t="s">
+        <v>140</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G69">
         <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G70">
         <v>68</v>
       </c>
       <c r="H70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71">
         <v>69</v>
       </c>
       <c r="H71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G72">
         <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7177,7 +7406,7 @@
         <v>71</v>
       </c>
       <c r="H73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.35">
@@ -7198,7 +7427,7 @@
         <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -7219,31 +7448,31 @@
         <v>73</v>
       </c>
       <c r="H75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G76">
         <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -7254,7 +7483,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="15">
@@ -7264,7 +7493,7 @@
         <v>75</v>
       </c>
       <c r="H77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -7285,18 +7514,18 @@
         <v>76</v>
       </c>
       <c r="H78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="15">
@@ -7306,7 +7535,7 @@
         <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -7327,7 +7556,7 @@
         <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -7348,18 +7577,18 @@
         <v>79</v>
       </c>
       <c r="H81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="15">
@@ -7370,7 +7599,7 @@
         <v>80</v>
       </c>
       <c r="H82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M82" t="e">
         <f>(M74-M73)/M74</f>
@@ -7379,13 +7608,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="26">
@@ -7395,18 +7624,18 @@
         <v>81</v>
       </c>
       <c r="H83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="26">
@@ -7416,18 +7645,18 @@
         <v>82</v>
       </c>
       <c r="H84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="15">
@@ -7437,18 +7666,18 @@
         <v>83</v>
       </c>
       <c r="H85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="15">
@@ -7458,18 +7687,18 @@
         <v>84</v>
       </c>
       <c r="H86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" s="34" t="s">
-        <v>186</v>
+      <c r="A87" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>29</v>
@@ -7479,37 +7708,37 @@
         <v>85</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A88" s="34"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E88" s="15"/>
       <c r="G88">
         <v>86</v>
       </c>
       <c r="H88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A89" s="34" t="s">
-        <v>188</v>
+      <c r="A89" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>29</v>
@@ -7519,37 +7748,37 @@
         <v>87</v>
       </c>
       <c r="H89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="34"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E90" s="15"/>
       <c r="G90">
         <v>88</v>
       </c>
       <c r="H90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91" s="34" t="s">
-        <v>189</v>
+      <c r="A91" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>29</v>
@@ -7559,56 +7788,56 @@
         <v>89</v>
       </c>
       <c r="H91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" s="34"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E92" s="15"/>
       <c r="G92">
         <v>90</v>
       </c>
       <c r="H92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" s="34"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E93" s="15"/>
       <c r="G93">
         <v>91</v>
       </c>
       <c r="H93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="15">
@@ -7618,21 +7847,21 @@
         <v>92</v>
       </c>
       <c r="H94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E95" s="15">
         <v>7.0000000000000007E-2</v>
@@ -7644,7 +7873,7 @@
         <v>93</v>
       </c>
       <c r="H95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -7653,10 +7882,10 @@
         <v>76</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="15">
         <v>7.0000000000000007E-2</v>
@@ -7665,7 +7894,7 @@
         <v>94</v>
       </c>
       <c r="H96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -7674,10 +7903,10 @@
         <v>76</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E97" s="15">
         <v>7.0000000000000007E-2</v>
@@ -7686,7 +7915,7 @@
         <v>95</v>
       </c>
       <c r="H97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -7695,10 +7924,10 @@
         <v>76</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E98" s="15">
         <v>7.0000000000000007E-2</v>
@@ -7707,31 +7936,31 @@
         <v>96</v>
       </c>
       <c r="H98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="15">
         <v>2</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G99">
         <v>97</v>
       </c>
       <c r="H99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7747,7 +7976,7 @@
         <v>98</v>
       </c>
       <c r="H100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
@@ -7768,7 +7997,7 @@
         <v>99</v>
       </c>
       <c r="H101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -7789,7 +8018,7 @@
         <v>100</v>
       </c>
       <c r="H102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -7810,7 +8039,7 @@
         <v>101</v>
       </c>
       <c r="H103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7828,7 +8057,7 @@
         <v>102</v>
       </c>
       <c r="H104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7849,7 +8078,7 @@
         <v>103</v>
       </c>
       <c r="H105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -7873,7 +8102,7 @@
         <v>104</v>
       </c>
       <c r="H106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7889,7 +8118,7 @@
         <v>105</v>
       </c>
       <c r="H107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7912,7 +8141,7 @@
         <v>106</v>
       </c>
       <c r="H108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -7935,7 +8164,7 @@
         <v>107</v>
       </c>
       <c r="H109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -7958,7 +8187,7 @@
         <v>108</v>
       </c>
       <c r="H110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -7981,7 +8210,7 @@
         <v>109</v>
       </c>
       <c r="H111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -8002,7 +8231,7 @@
         <v>110</v>
       </c>
       <c r="H112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -8023,7 +8252,7 @@
         <v>111</v>
       </c>
       <c r="H113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -8044,7 +8273,7 @@
         <v>112</v>
       </c>
       <c r="H114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -8063,7 +8292,7 @@
         <v>113</v>
       </c>
       <c r="H115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -8086,7 +8315,7 @@
         <v>114</v>
       </c>
       <c r="H116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -8107,7 +8336,7 @@
         <v>115</v>
       </c>
       <c r="H117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -8128,7 +8357,7 @@
         <v>116</v>
       </c>
       <c r="H118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -8152,7 +8381,7 @@
         <v>117</v>
       </c>
       <c r="H119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -8171,7 +8400,7 @@
         <v>118</v>
       </c>
       <c r="H120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -8188,13 +8417,13 @@
         <v>2</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G121">
         <v>119</v>
       </c>
       <c r="H121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -8217,7 +8446,7 @@
         <v>120</v>
       </c>
       <c r="H122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -8240,7 +8469,7 @@
         <v>121</v>
       </c>
       <c r="H123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -8263,7 +8492,7 @@
         <v>122</v>
       </c>
       <c r="H124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -8284,7 +8513,7 @@
         <v>123</v>
       </c>
       <c r="H125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -8305,7 +8534,7 @@
         <v>124</v>
       </c>
       <c r="H126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -8326,7 +8555,7 @@
         <v>125</v>
       </c>
       <c r="H127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -8347,7 +8576,7 @@
         <v>126</v>
       </c>
       <c r="H128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
@@ -8370,7 +8599,7 @@
         <v>127</v>
       </c>
       <c r="H129" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -8391,7 +8620,7 @@
         <v>128</v>
       </c>
       <c r="H130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -8412,7 +8641,7 @@
         <v>129</v>
       </c>
       <c r="H131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -8433,7 +8662,7 @@
         <v>130</v>
       </c>
       <c r="H132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
@@ -8454,12 +8683,12 @@
         <v>131</v>
       </c>
       <c r="H133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>82</v>
@@ -8474,12 +8703,12 @@
         <v>132</v>
       </c>
       <c r="H134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>82</v>
@@ -8494,12 +8723,12 @@
         <v>133</v>
       </c>
       <c r="H135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>82</v>
@@ -8514,12 +8743,12 @@
         <v>134</v>
       </c>
       <c r="H136" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>82</v>
@@ -8534,7 +8763,7 @@
         <v>135</v>
       </c>
       <c r="H137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -8552,7 +8781,7 @@
         <v>136</v>
       </c>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -8570,7 +8799,7 @@
         <v>137</v>
       </c>
       <c r="H139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -8588,7 +8817,7 @@
         <v>138</v>
       </c>
       <c r="H140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
@@ -8606,12 +8835,12 @@
         <v>139</v>
       </c>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>82</v>
@@ -8626,7 +8855,7 @@
         <v>140</v>
       </c>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
@@ -8646,7 +8875,7 @@
         <v>141</v>
       </c>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
@@ -8666,7 +8895,7 @@
         <v>142</v>
       </c>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
@@ -8684,7 +8913,7 @@
         <v>143</v>
       </c>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
@@ -8702,12 +8931,12 @@
         <v>144</v>
       </c>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>82</v>
@@ -8722,12 +8951,12 @@
         <v>145</v>
       </c>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>82</v>
@@ -8742,12 +8971,12 @@
         <v>146</v>
       </c>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>82</v>
@@ -8762,12 +8991,12 @@
         <v>147</v>
       </c>
       <c r="H149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>82</v>
@@ -8782,7 +9011,7 @@
         <v>148</v>
       </c>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
@@ -8800,7 +9029,7 @@
         <v>149</v>
       </c>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -8818,7 +9047,7 @@
         <v>150</v>
       </c>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
@@ -8836,7 +9065,7 @@
         <v>151</v>
       </c>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
@@ -8854,12 +9083,12 @@
         <v>152</v>
       </c>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>82</v>
@@ -8874,7 +9103,7 @@
         <v>153</v>
       </c>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
@@ -8894,7 +9123,7 @@
         <v>154</v>
       </c>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
@@ -8914,7 +9143,7 @@
         <v>155</v>
       </c>
       <c r="H157" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
@@ -8932,7 +9161,7 @@
         <v>156</v>
       </c>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
@@ -8950,12 +9179,12 @@
         <v>157</v>
       </c>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>82</v>
@@ -8970,12 +9199,12 @@
         <v>158</v>
       </c>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>82</v>
@@ -8990,12 +9219,12 @@
         <v>159</v>
       </c>
       <c r="H161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>82</v>
@@ -9010,12 +9239,12 @@
         <v>160</v>
       </c>
       <c r="H162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>82</v>
@@ -9030,7 +9259,7 @@
         <v>161</v>
       </c>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -9048,7 +9277,7 @@
         <v>162</v>
       </c>
       <c r="H164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -9066,7 +9295,7 @@
         <v>163</v>
       </c>
       <c r="H165" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -9084,7 +9313,7 @@
         <v>164</v>
       </c>
       <c r="H166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
@@ -9102,12 +9331,12 @@
         <v>165</v>
       </c>
       <c r="H167" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>82</v>
@@ -9122,7 +9351,7 @@
         <v>166</v>
       </c>
       <c r="H168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -9142,7 +9371,7 @@
         <v>167</v>
       </c>
       <c r="H169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -9162,7 +9391,7 @@
         <v>168</v>
       </c>
       <c r="H170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -9180,7 +9409,7 @@
         <v>169</v>
       </c>
       <c r="H171" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -9198,7 +9427,7 @@
         <v>170</v>
       </c>
       <c r="H172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">

--- a/docs/source/tutorials/GenVeg/GenVeg_Dune_Simulation.xlsx
+++ b/docs/source/tutorials/GenVeg/GenVeg_Dune_Simulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\landlab\docs\source\tutorials\GenVeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A97EA2-0021-47E8-B9D0-C71D22749FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E502BE08-2572-410A-B882-616C3FB5D314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
   </bookViews>
@@ -1582,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59430052-850A-4E52-8B29-0C7825B169C3}">
   <dimension ref="A1:K264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5709,6 +5709,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="A102:A104"/>
@@ -5719,16 +5729,6 @@
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="21">
@@ -9918,12 +9918,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="F42:F47"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A48:A51"/>
@@ -9932,6 +9926,12 @@
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="F42:F47"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E19 E40" xr:uid="{FEC1871F-0B63-45CE-84E2-697ABFCCA571}">
